--- a/argendata/qa/geonomencladores/geonomenclador.xlsx
+++ b/argendata/qa/geonomencladores/geonomenclador.xlsx
@@ -4,21 +4,25 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Pivot Table 1" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$K$447</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$Z$448</definedName>
   </definedNames>
   <calcPr/>
+  <pivotCaches>
+    <pivotCache cacheId="0" r:id="rId6"/>
+  </pivotCaches>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="XY9cFb/Xs/KhME55t5s9fAGtWKuJ+b64oJU43nP/gLM="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="12Uq223x/Py2nAALkaGNhcYpALIxvm/Xh+MBtSIpEkI="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3123" uniqueCount="912">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3543" uniqueCount="916">
   <si>
     <t>codigo_fundar</t>
   </si>
@@ -2384,7 +2388,7 @@
     <t>TTO</t>
   </si>
   <si>
-    <t>Trinidad y Tabago</t>
+    <t>Trinidad y Tobago</t>
   </si>
   <si>
     <t>TUN</t>
@@ -2754,6 +2758,18 @@
   </si>
   <si>
     <t>América del Sur y Central</t>
+  </si>
+  <si>
+    <t>FUNDAR_RESTO</t>
+  </si>
+  <si>
+    <t>Resto</t>
+  </si>
+  <si>
+    <t>COUNTUNIQUE of codigo_fundar</t>
+  </si>
+  <si>
+    <t>COUNTUNIQUE of fuente_codigo_fundar</t>
   </si>
 </sst>
 </file>
@@ -2793,7 +2809,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2801,6 +2817,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -2811,6 +2830,1255 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" invalid="1" refreshOnLoad="1">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:K447" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields>
+    <cacheField name="codigo_fundar" numFmtId="0">
+      <sharedItems>
+        <s v="ABW"/>
+        <s v="AFE"/>
+        <s v="AFG"/>
+        <s v="AFW"/>
+        <s v="AGO"/>
+        <s v="AIA"/>
+        <s v="ALA"/>
+        <s v="ALB"/>
+        <s v="AND"/>
+        <s v="ANT"/>
+        <s v="ARB"/>
+        <s v="ARE"/>
+        <s v="ARG"/>
+        <s v="ARM"/>
+        <s v="ASM"/>
+        <s v="ATA"/>
+        <s v="ATF"/>
+        <s v="ATG"/>
+        <s v="AUS"/>
+        <s v="AUT"/>
+        <s v="AZE"/>
+        <s v="BAT"/>
+        <s v="BDI"/>
+        <s v="BEL"/>
+        <s v="BEN"/>
+        <s v="BES"/>
+        <s v="BFA"/>
+        <s v="BGD"/>
+        <s v="BGR"/>
+        <s v="BHR"/>
+        <s v="BHS"/>
+        <s v="BIH"/>
+        <s v="BLM"/>
+        <s v="BLR"/>
+        <s v="BLX"/>
+        <s v="BLZ"/>
+        <s v="BMU"/>
+        <s v="BOL"/>
+        <s v="BRA"/>
+        <s v="BRB"/>
+        <s v="BRN"/>
+        <s v="BTN"/>
+        <s v="BVT"/>
+        <s v="BWA"/>
+        <s v="CAF"/>
+        <s v="CAN"/>
+        <s v="CCK"/>
+        <s v="CEB"/>
+        <s v="CEM"/>
+        <s v="CHA"/>
+        <s v="CHE"/>
+        <s v="CHI"/>
+        <s v="CHL"/>
+        <s v="CHN"/>
+        <s v="CHT"/>
+        <s v="CIV"/>
+        <s v="CMR"/>
+        <s v="COD"/>
+        <s v="COG"/>
+        <s v="COK"/>
+        <s v="COL"/>
+        <s v="COM"/>
+        <s v="CPV"/>
+        <s v="CRI"/>
+        <s v="CSK"/>
+        <s v="CSS"/>
+        <s v="CUB"/>
+        <s v="CUV"/>
+        <s v="CUW"/>
+        <s v="CXR"/>
+        <s v="CYM"/>
+        <s v="CYP"/>
+        <s v="CZE"/>
+        <s v="DDR"/>
+        <s v="DEU"/>
+        <s v="DJI"/>
+        <s v="DMA"/>
+        <s v="DNK"/>
+        <s v="DOM"/>
+        <s v="DZA"/>
+        <s v="EAP"/>
+        <s v="EAR"/>
+        <s v="EAS"/>
+        <s v="ECA"/>
+        <s v="ECS"/>
+        <s v="ECU"/>
+        <s v="EEC"/>
+        <s v="EGY"/>
+        <s v="EMU"/>
+        <s v="ERI"/>
+        <s v="ESH"/>
+        <s v="ESP"/>
+        <s v="EST"/>
+        <s v="ETF"/>
+        <s v="ETH"/>
+        <s v="EUN"/>
+        <s v="EUU"/>
+        <s v="F15"/>
+        <s v="F164"/>
+        <s v="F206"/>
+        <s v="F228"/>
+        <s v="F246"/>
+        <s v="F247"/>
+        <s v="F248"/>
+        <s v="F285"/>
+        <s v="F336"/>
+        <s v="F351"/>
+        <s v="F420"/>
+        <s v="F429"/>
+        <s v="F51"/>
+        <s v="F5101"/>
+        <s v="F5102"/>
+        <s v="F5103"/>
+        <s v="F5104"/>
+        <s v="F5105"/>
+        <s v="F5203"/>
+        <s v="F5204"/>
+        <s v="F5205"/>
+        <s v="F5206"/>
+        <s v="F5207"/>
+        <s v="F5208"/>
+        <s v="F5300"/>
+        <s v="F5301"/>
+        <s v="F5302"/>
+        <s v="F5303"/>
+        <s v="F5304"/>
+        <s v="F5305"/>
+        <s v="F5306"/>
+        <s v="F5307"/>
+        <s v="F5308"/>
+        <s v="F5400"/>
+        <s v="F5401"/>
+        <s v="F5402"/>
+        <s v="F5403"/>
+        <s v="F5404"/>
+        <s v="F5500"/>
+        <s v="F5501"/>
+        <s v="F5502"/>
+        <s v="F5503"/>
+        <s v="F5504"/>
+        <s v="F5600"/>
+        <s v="F5707"/>
+        <s v="F5801"/>
+        <s v="F5802"/>
+        <s v="F5803"/>
+        <s v="F5807"/>
+        <s v="F5810"/>
+        <s v="F5815"/>
+        <s v="F5817"/>
+        <s v="F5825"/>
+        <s v="F5826"/>
+        <s v="F5827"/>
+        <s v="F5828"/>
+        <s v="F5829"/>
+        <s v="F5848"/>
+        <s v="F5849"/>
+        <s v="F5855"/>
+        <s v="F5857"/>
+        <s v="F5858"/>
+        <s v="F5859"/>
+        <s v="F5873"/>
+        <s v="F62"/>
+        <s v="F77"/>
+        <s v="F78"/>
+        <s v="F9010"/>
+        <s v="F9011"/>
+        <s v="FCS"/>
+        <s v="FIN"/>
+        <s v="FJI"/>
+        <s v="FLK"/>
+        <s v="FRA"/>
+        <s v="FRE"/>
+        <s v="FRO"/>
+        <s v="FSM"/>
+        <s v="GAB"/>
+        <s v="GAZ"/>
+        <s v="GBR"/>
+        <s v="GEO"/>
+        <s v="GGY"/>
+        <s v="GHA"/>
+        <s v="GIB"/>
+        <s v="GIN"/>
+        <s v="GLP"/>
+        <s v="GMB"/>
+        <s v="GNB"/>
+        <s v="GNQ"/>
+        <s v="GRC"/>
+        <s v="GRD"/>
+        <s v="GRL"/>
+        <s v="GTM"/>
+        <s v="GUF"/>
+        <s v="GUM"/>
+        <s v="GUY"/>
+        <s v="HIC"/>
+        <s v="HKG"/>
+        <s v="HMD"/>
+        <s v="HND"/>
+        <s v="HPC"/>
+        <s v="HRV"/>
+        <s v="HTI"/>
+        <s v="HUN"/>
+        <s v="IBD"/>
+        <s v="IBT"/>
+        <s v="IDA"/>
+        <s v="IDB"/>
+        <s v="IDN"/>
+        <s v="IDX"/>
+        <s v="IMN"/>
+        <s v="IND"/>
+        <s v="IOT"/>
+        <s v="IRL"/>
+        <s v="IRN"/>
+        <s v="IRQ"/>
+        <s v="ISL"/>
+        <s v="ISR"/>
+        <s v="ITA"/>
+        <s v="JAM"/>
+        <s v="JEY"/>
+        <s v="JOR"/>
+        <s v="JPN"/>
+        <s v="JTN"/>
+        <s v="KAZ"/>
+        <s v="KEN"/>
+        <s v="KGZ"/>
+        <s v="KHM"/>
+        <s v="KIR"/>
+        <s v="KN1"/>
+        <s v="KNA"/>
+        <s v="KOR"/>
+        <s v="KOS"/>
+        <s v="KWT"/>
+        <s v="LAC"/>
+        <s v="LAO"/>
+        <s v="LBN"/>
+        <s v="LBR"/>
+        <s v="LBY"/>
+        <s v="LCA"/>
+        <s v="LCN"/>
+        <s v="LDC"/>
+        <s v="LIC"/>
+        <s v="LIE"/>
+        <s v="LKA"/>
+        <s v="LMC"/>
+        <s v="LMY"/>
+        <s v="LSO"/>
+        <s v="LTE"/>
+        <s v="LTU"/>
+        <s v="LUX"/>
+        <s v="LVA"/>
+        <s v="MAC"/>
+        <s v="MAF"/>
+        <s v="MAR"/>
+        <s v="MCO"/>
+        <s v="MDA"/>
+        <s v="MDG"/>
+        <s v="MDV"/>
+        <s v="MEA"/>
+        <s v="MEX"/>
+        <s v="MHL"/>
+        <s v="MIC"/>
+        <s v="MID"/>
+        <s v="MKD"/>
+        <s v="MLI"/>
+        <s v="MLT"/>
+        <s v="MMR"/>
+        <s v="MNA"/>
+        <s v="MNE"/>
+        <s v="MNG"/>
+        <s v="MNP"/>
+        <s v="MOZ"/>
+        <s v="MRT"/>
+        <s v="MSR"/>
+        <s v="MTQ"/>
+        <s v="MUS"/>
+        <s v="MWI"/>
+        <s v="MYS"/>
+        <s v="MYT"/>
+        <s v="NAC"/>
+        <s v="NAM"/>
+        <s v="NCL"/>
+        <s v="NER"/>
+        <s v="NFK"/>
+        <s v="NGA"/>
+        <s v="NIC"/>
+        <s v="NIU"/>
+        <s v="NLD"/>
+        <s v="NOR"/>
+        <s v="NPL"/>
+        <s v="NRU"/>
+        <s v="NZE"/>
+        <s v="NZL"/>
+        <s v="OED"/>
+        <s v="OHI"/>
+        <s v="OMN"/>
+        <s v="OSS"/>
+        <s v="PAK"/>
+        <s v="PAL"/>
+        <s v="PAN"/>
+        <s v="PCE"/>
+        <s v="PCN"/>
+        <s v="PCZ"/>
+        <s v="PER"/>
+        <s v="PHL"/>
+        <s v="PLW"/>
+        <s v="PMY"/>
+        <s v="PNG"/>
+        <s v="POL"/>
+        <s v="PRE"/>
+        <s v="PRI"/>
+        <s v="PRK"/>
+        <s v="PRT"/>
+        <s v="PRY"/>
+        <s v="PSE"/>
+        <s v="PSS"/>
+        <s v="PST"/>
+        <s v="PYF"/>
+        <s v="QAT"/>
+        <s v="REU"/>
+        <s v="ROM"/>
+        <s v="ROU"/>
+        <s v="RUS"/>
+        <s v="RWA"/>
+        <s v="RYU"/>
+        <s v="SAS"/>
+        <s v="SAU"/>
+        <s v="SBH"/>
+        <s v="SCG"/>
+        <s v="SDN"/>
+        <s v="SEN"/>
+        <s v="SER"/>
+        <s v="SGP"/>
+        <s v="SGS"/>
+        <s v="SHN"/>
+        <s v="SIK"/>
+        <s v="SJM"/>
+        <s v="SLB"/>
+        <s v="SLE"/>
+        <s v="SLV"/>
+        <s v="SMR"/>
+        <s v="SOM"/>
+        <s v="SPE"/>
+        <s v="SPM"/>
+        <s v="SRB"/>
+        <s v="SSA"/>
+        <s v="SSD"/>
+        <s v="SSF"/>
+        <s v="SST"/>
+        <s v="STP"/>
+        <s v="SUN"/>
+        <s v="SUR"/>
+        <s v="SVK"/>
+        <s v="SVN"/>
+        <s v="SVR"/>
+        <s v="SVU"/>
+        <s v="SWE"/>
+        <s v="SWK"/>
+        <s v="SWZ"/>
+        <s v="SXM"/>
+        <s v="SYC"/>
+        <s v="SYR"/>
+        <s v="TAN"/>
+        <s v="TCA"/>
+        <s v="TCD"/>
+        <s v="TEA"/>
+        <s v="TEC"/>
+        <s v="TGO"/>
+        <s v="THA"/>
+        <s v="TJK"/>
+        <s v="TKL"/>
+        <s v="TKM"/>
+        <s v="TLA"/>
+        <s v="TLS"/>
+        <s v="TMN"/>
+        <s v="TMP"/>
+        <s v="TON"/>
+        <s v="TSA"/>
+        <s v="TSS"/>
+        <s v="TTO"/>
+        <s v="TUN"/>
+        <s v="TUR"/>
+        <s v="TUV"/>
+        <s v="TWN"/>
+        <s v="TZA"/>
+        <s v="UGA"/>
+        <s v="UKR"/>
+        <s v="UMC"/>
+        <s v="UMI"/>
+        <s v="UNS"/>
+        <s v="URY"/>
+        <s v="USA"/>
+        <s v="USP"/>
+        <s v="UVK"/>
+        <s v="UZB"/>
+        <s v="VAT"/>
+        <s v="VCT"/>
+        <s v="VDR"/>
+        <s v="VEN"/>
+        <s v="VGB"/>
+        <s v="VIR"/>
+        <s v="VNM"/>
+        <s v="VUT"/>
+        <s v="WAK"/>
+        <s v="WBG"/>
+        <s v="WLD"/>
+        <s v="WLF"/>
+        <s v="WSM"/>
+        <s v="X01"/>
+        <s v="X06"/>
+        <s v="X21"/>
+        <s v="XKX"/>
+        <s v="YDR"/>
+        <s v="YEM"/>
+        <s v="YMD"/>
+        <s v="YUG"/>
+        <s v="ZAF"/>
+        <s v="ZAR"/>
+        <s v="ZMB"/>
+        <s v="ZPM"/>
+        <s v="ZW1"/>
+        <s v="ZWE"/>
+        <s v="EAZ"/>
+        <s v="OWID_WRL"/>
+        <s v="OWID_KOS"/>
+        <s v="OWID_USS"/>
+        <s v="OWID_YGS"/>
+        <s v="OWID_CZS"/>
+        <s v="TRANS"/>
+        <s v="PCI"/>
+        <s v="ANS"/>
+        <s v="APEC"/>
+        <s v="ASEAN"/>
+        <s v="EA19"/>
+        <s v="EASIA"/>
+        <s v="EU13"/>
+        <s v="EU15"/>
+        <s v="EU27_2020"/>
+        <s v="EU28"/>
+        <s v="G20"/>
+        <s v="NONOECD"/>
+        <s v="OECD"/>
+        <s v="ROW"/>
+        <s v="ZASI"/>
+        <s v="ZEUR"/>
+        <s v="ZNAM"/>
+        <s v="ZOTH"/>
+        <s v="ZSCA"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="m49_code_unsd" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1">
+        <n v="533.0"/>
+        <m/>
+        <n v="4.0"/>
+        <n v="24.0"/>
+        <n v="660.0"/>
+        <n v="248.0"/>
+        <n v="8.0"/>
+        <n v="20.0"/>
+        <n v="530.0"/>
+        <n v="784.0"/>
+        <n v="32.0"/>
+        <n v="51.0"/>
+        <n v="16.0"/>
+        <n v="10.0"/>
+        <n v="260.0"/>
+        <n v="28.0"/>
+        <n v="36.0"/>
+        <n v="40.0"/>
+        <n v="31.0"/>
+        <n v="108.0"/>
+        <n v="56.0"/>
+        <n v="204.0"/>
+        <n v="535.0"/>
+        <n v="854.0"/>
+        <n v="50.0"/>
+        <n v="100.0"/>
+        <n v="48.0"/>
+        <n v="44.0"/>
+        <n v="70.0"/>
+        <n v="652.0"/>
+        <n v="112.0"/>
+        <n v="84.0"/>
+        <n v="60.0"/>
+        <n v="68.0"/>
+        <n v="76.0"/>
+        <n v="52.0"/>
+        <n v="96.0"/>
+        <n v="64.0"/>
+        <n v="74.0"/>
+        <n v="72.0"/>
+        <n v="140.0"/>
+        <n v="124.0"/>
+        <n v="166.0"/>
+        <n v="756.0"/>
+        <n v="152.0"/>
+        <n v="156.0"/>
+        <n v="384.0"/>
+        <n v="120.0"/>
+        <n v="180.0"/>
+        <n v="178.0"/>
+        <n v="184.0"/>
+        <n v="170.0"/>
+        <n v="174.0"/>
+        <n v="132.0"/>
+        <n v="188.0"/>
+        <n v="200.0"/>
+        <n v="192.0"/>
+        <n v="531.0"/>
+        <n v="162.0"/>
+        <n v="136.0"/>
+        <n v="196.0"/>
+        <n v="203.0"/>
+        <n v="278.0"/>
+        <n v="276.0"/>
+        <n v="262.0"/>
+        <n v="212.0"/>
+        <n v="208.0"/>
+        <n v="214.0"/>
+        <n v="12.0"/>
+        <n v="218.0"/>
+        <n v="818.0"/>
+        <n v="232.0"/>
+        <n v="732.0"/>
+        <n v="724.0"/>
+        <n v="233.0"/>
+        <n v="230.0"/>
+        <n v="231.0"/>
+        <n v="736.0"/>
+        <n v="246.0"/>
+        <n v="242.0"/>
+        <n v="238.0"/>
+        <n v="250.0"/>
+        <n v="234.0"/>
+        <n v="583.0"/>
+        <n v="266.0"/>
+        <n v="826.0"/>
+        <n v="268.0"/>
+        <n v="831.0"/>
+        <n v="288.0"/>
+        <n v="292.0"/>
+        <n v="324.0"/>
+        <n v="312.0"/>
+        <n v="270.0"/>
+        <n v="624.0"/>
+        <n v="226.0"/>
+        <n v="300.0"/>
+        <n v="308.0"/>
+        <n v="304.0"/>
+        <n v="320.0"/>
+        <n v="254.0"/>
+        <n v="316.0"/>
+        <n v="328.0"/>
+        <n v="344.0"/>
+        <n v="334.0"/>
+        <n v="340.0"/>
+        <n v="191.0"/>
+        <n v="332.0"/>
+        <n v="348.0"/>
+        <n v="360.0"/>
+        <n v="833.0"/>
+        <n v="356.0"/>
+        <n v="86.0"/>
+        <n v="372.0"/>
+        <n v="364.0"/>
+        <n v="368.0"/>
+        <n v="352.0"/>
+        <n v="376.0"/>
+        <n v="380.0"/>
+        <n v="388.0"/>
+        <n v="832.0"/>
+        <n v="400.0"/>
+        <n v="392.0"/>
+        <n v="398.0"/>
+        <n v="404.0"/>
+        <n v="417.0"/>
+        <n v="116.0"/>
+        <n v="296.0"/>
+        <n v="659.0"/>
+        <n v="410.0"/>
+        <n v="412.0"/>
+        <n v="414.0"/>
+        <n v="418.0"/>
+        <n v="422.0"/>
+        <n v="430.0"/>
+        <n v="434.0"/>
+        <n v="662.0"/>
+        <n v="438.0"/>
+        <n v="144.0"/>
+        <n v="426.0"/>
+        <n v="440.0"/>
+        <n v="442.0"/>
+        <n v="428.0"/>
+        <n v="446.0"/>
+        <n v="663.0"/>
+        <n v="504.0"/>
+        <n v="492.0"/>
+        <n v="498.0"/>
+        <n v="450.0"/>
+        <n v="462.0"/>
+        <n v="484.0"/>
+        <n v="584.0"/>
+        <n v="807.0"/>
+        <n v="466.0"/>
+        <n v="470.0"/>
+        <n v="104.0"/>
+        <n v="499.0"/>
+        <n v="496.0"/>
+        <n v="580.0"/>
+        <n v="508.0"/>
+        <n v="478.0"/>
+        <n v="500.0"/>
+        <n v="474.0"/>
+        <n v="480.0"/>
+        <n v="454.0"/>
+        <n v="458.0"/>
+        <n v="175.0"/>
+        <n v="516.0"/>
+        <n v="540.0"/>
+        <n v="562.0"/>
+        <n v="574.0"/>
+        <n v="566.0"/>
+        <n v="558.0"/>
+        <n v="570.0"/>
+        <n v="528.0"/>
+        <n v="578.0"/>
+        <n v="524.0"/>
+        <n v="520.0"/>
+        <n v="554.0"/>
+        <n v="512.0"/>
+        <n v="586.0"/>
+        <n v="591.0"/>
+        <n v="612.0"/>
+        <n v="604.0"/>
+        <n v="608.0"/>
+        <n v="585.0"/>
+        <n v="598.0"/>
+        <n v="616.0"/>
+        <n v="630.0"/>
+        <n v="408.0"/>
+        <n v="620.0"/>
+        <n v="600.0"/>
+        <n v="275.0"/>
+        <n v="258.0"/>
+        <n v="634.0"/>
+        <n v="638.0"/>
+        <n v="642.0"/>
+        <n v="643.0"/>
+        <n v="646.0"/>
+        <n v="682.0"/>
+        <n v="891.0"/>
+        <n v="729.0"/>
+        <n v="686.0"/>
+        <n v="702.0"/>
+        <n v="239.0"/>
+        <n v="654.0"/>
+        <n v="744.0"/>
+        <n v="90.0"/>
+        <n v="694.0"/>
+        <n v="222.0"/>
+        <n v="674.0"/>
+        <n v="706.0"/>
+        <n v="666.0"/>
+        <n v="688.0"/>
+        <n v="728.0"/>
+        <n v="678.0"/>
+        <n v="740.0"/>
+        <n v="703.0"/>
+        <n v="705.0"/>
+        <n v="866.0"/>
+        <n v="810.0"/>
+        <n v="752.0"/>
+        <n v="748.0"/>
+        <n v="534.0"/>
+        <n v="690.0"/>
+        <n v="760.0"/>
+        <n v="796.0"/>
+        <n v="148.0"/>
+        <n v="768.0"/>
+        <n v="764.0"/>
+        <n v="762.0"/>
+        <n v="772.0"/>
+        <n v="795.0"/>
+        <n v="626.0"/>
+        <n v="776.0"/>
+        <n v="780.0"/>
+        <n v="788.0"/>
+        <n v="792.0"/>
+        <n v="798.0"/>
+        <n v="158.0"/>
+        <n v="834.0"/>
+        <n v="800.0"/>
+        <n v="804.0"/>
+        <n v="581.0"/>
+        <n v="858.0"/>
+        <n v="840.0"/>
+        <n v="860.0"/>
+        <n v="336.0"/>
+        <n v="670.0"/>
+        <n v="868.0"/>
+        <n v="862.0"/>
+        <n v="92.0"/>
+        <n v="850.0"/>
+        <n v="704.0"/>
+        <n v="548.0"/>
+        <n v="876.0"/>
+        <n v="882.0"/>
+        <n v="720.0"/>
+        <n v="887.0"/>
+        <n v="886.0"/>
+        <n v="890.0"/>
+        <n v="710.0"/>
+        <n v="894.0"/>
+        <n v="836.0"/>
+        <n v="716.0"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="fuente_codigo_fundar" numFmtId="0">
+      <sharedItems>
+        <s v="iso"/>
+        <s v="bm"/>
+        <s v="indec"/>
+        <s v="wits"/>
+        <s v="wto"/>
+        <s v="fao"/>
+        <s v="undp"/>
+        <s v="pip"/>
+        <s v="fmi"/>
+        <s v="cep"/>
+        <s v="owid"/>
+        <s v="atlas"/>
+        <s v="oecd"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="desc_fundar" numFmtId="0">
+      <sharedItems>
+        <s v="Aruba"/>
+        <s v="África Oriental y Meridional"/>
+        <s v="Afganistán"/>
+        <s v="África Occidental y Central"/>
+        <s v="Angola"/>
+        <s v="Anguila"/>
+        <s v="Islas Åland"/>
+        <s v="Albania"/>
+        <s v="Andorra"/>
+        <s v="Antillas Holandesas"/>
+        <s v="Mundo Árabe"/>
+        <s v="Emiratos Árabes Unidos"/>
+        <s v="Argentina"/>
+        <s v="Armenia"/>
+        <s v="Samoa Americana"/>
+        <s v="Antártida"/>
+        <s v="Territorio de las Tierras Australes Francesas"/>
+        <s v="Antigua y Barbuda"/>
+        <s v="Australia"/>
+        <s v="Austria"/>
+        <s v="Azerbaiyán"/>
+        <s v="Territorio Antártico Británico"/>
+        <s v="Burundi"/>
+        <s v="Bélgica"/>
+        <s v="Benin"/>
+        <s v="Bonaire, San Eustaquio y Saba"/>
+        <s v="Burkina Faso"/>
+        <s v="Bangladesh"/>
+        <s v="Bulgaria"/>
+        <s v="Bahrein"/>
+        <s v="Bahamas"/>
+        <s v="Bosnia y Herzegovina"/>
+        <s v="San Barthélemy"/>
+        <s v="Belarús"/>
+        <s v="Bélgica-Luxemburgo"/>
+        <s v="Belice"/>
+        <s v="Bermuda"/>
+        <s v="Bolivia"/>
+        <s v="Brasil"/>
+        <s v="Barbados"/>
+        <s v="Brunei Darussalam"/>
+        <s v="Bhután"/>
+        <s v="Isla Bouvet"/>
+        <s v="Botswana"/>
+        <s v="República Centroafricana"/>
+        <s v="Canadá"/>
+        <s v="Islas Cocos (Keeling)"/>
+        <s v="Europa Central y Los Países Bálticos"/>
+        <s v="Comunidad Económica y Monetaria de Africa Central (CEMAC)"/>
+        <s v="Islas Del Canal"/>
+        <s v="Suiza"/>
+        <s v="Chile"/>
+        <s v="China"/>
+        <s v="Taiwán"/>
+        <s v="Costa de Marfil"/>
+        <s v="Camerún"/>
+        <s v="República Democrática del Congo"/>
+        <s v="Congo"/>
+        <s v="Islas Cook"/>
+        <s v="Colombia"/>
+        <s v="Comoras"/>
+        <s v="Cabo Verde"/>
+        <s v="Costa Rica"/>
+        <s v="Checoslovaquia"/>
+        <s v="Pequeños Estados Del Caribe"/>
+        <s v="Cuba"/>
+        <s v="Curazao"/>
+        <s v="Isla Christmas"/>
+        <s v="Islas Caimán"/>
+        <s v="Chipre"/>
+        <s v="Chequia"/>
+        <s v="República Democrática Alemana"/>
+        <s v="Alemania"/>
+        <s v="Djibouti"/>
+        <s v="Dominica"/>
+        <s v="Dinamarca"/>
+        <s v="Dominicana"/>
+        <s v="Argelia"/>
+        <s v="Este de Asia y Pacífico (excluyendo Países de Altos Ingresos)"/>
+        <s v="Bono Demográfico Temprano"/>
+        <s v="Este de Asia y Pacífico"/>
+        <s v="Europa y Asia Central (excluyendo Países de Altos Ingresos)"/>
+        <s v="Europa y Asia Central"/>
+        <s v="Ecuador"/>
+        <s v="Unión Europea"/>
+        <s v="Egipto"/>
+        <s v="Zona del Euro"/>
+        <s v="Eritrea"/>
+        <s v="Sáhara Occidental"/>
+        <s v="España"/>
+        <s v="Estonia"/>
+        <s v="Etiopía (incluye Eritrea)"/>
+        <s v="Etiopía"/>
+        <s v="Territorio en Fideicomiso de las Islas del Pacífico"/>
+        <s v="Sudán (Ex)"/>
+        <s v="Unión Soviética"/>
+        <s v="República Arábica de Yemen"/>
+        <s v="Yemen Democrático"/>
+        <s v="Yugoslavia"/>
+        <s v="Sark"/>
+        <s v="América del Norte y Central"/>
+        <s v="Africa Sub-Sahariana"/>
+        <s v="Norte de África (excluido Sudán)"/>
+        <s v="África Oriental"/>
+        <s v="África Media"/>
+        <s v="África del Norte"/>
+        <s v="África del Sur"/>
+        <s v="África Occidental"/>
+        <s v="América del Norte"/>
+        <s v="Centroamérica"/>
+        <s v="América Latina y El Caribe"/>
+        <s v="Caribe"/>
+        <s v="Sudamerica"/>
+        <s v="América Del Norte y Europa"/>
+        <s v="Asia"/>
+        <s v="Asia Central"/>
+        <s v="Asia Oriental"/>
+        <s v="Asia del Sur"/>
+        <s v="Sudeste Asiático"/>
+        <s v="Asia Occidental"/>
+        <s v="Asia Central y Asia Meridional"/>
+        <s v="Asia Oriental y Asia Sudoriental"/>
+        <s v="Asia Occidental y África del Norte"/>
+        <s v="Europa"/>
+        <s v="Europa del Este"/>
+        <s v="Norte de Europa"/>
+        <s v="Europa del Sur"/>
+        <s v="Europa Oriental"/>
+        <s v="Oceanía"/>
+        <s v="Australia y Nueva Zelanda"/>
+        <s v="Melanesia"/>
+        <s v="Micronesia"/>
+        <s v="Polinesia"/>
+        <s v="Región Antártica"/>
+        <s v="Unión Europea (27)"/>
+        <s v="Países Menos Desarrollados"/>
+        <s v="Países en Desarrollo Sin Litoral"/>
+        <s v="Pequeños Estados Insulares en Desarrollo"/>
+        <s v="Oceanía (excluyendo Australia y Nueva Zelanda)"/>
+        <s v="África Subsahariana (incluido Sudán)"/>
+        <s v="Países de Bajos Ingresos y con Déficit de Alimentos"/>
+        <s v="Países en Desarrollo Importadores Netos de Alimentos"/>
+        <s v="Asia Oriental (excluido Japón)"/>
+        <s v="Regiones en Desarrollo"/>
+        <s v="Regiones Desarrolladas"/>
+        <s v="Asia Occidental (excluyendo Armenia, Azerbaiyán, Chipre, Israel y Georgia)"/>
+        <s v="Asia Oriental (excluyendo Japón y China)"/>
+        <s v="Países del Anexo I"/>
+        <s v="Países no Incluidos en el Anexo I"/>
+        <s v="Asia Meridional (excluida India)"/>
+        <s v="Cáucaso y Asia Central"/>
+        <s v="Economías de Bajos Ingresos"/>
+        <s v="Economías de Ingresos Medianos Bajos"/>
+        <s v="OCDE"/>
+        <s v="República Democrática Popular Etiopía"/>
+        <s v="Alemania Nl"/>
+        <s v="Alemania P."/>
+        <s v="Economías de Altos Ingresos"/>
+        <s v="Economías de Ingresos Medianos Altos"/>
+        <s v="Situaciones Frágiles y Afectadas por Conflictos"/>
+        <s v="Finlandia"/>
+        <s v="Fiji"/>
+        <s v="Islas Malvinas"/>
+        <s v="Francia"/>
+        <s v="Zonas Francas"/>
+        <s v="Islas Feroe"/>
+        <s v="Gabón"/>
+        <s v="Franja de Gaza"/>
+        <s v="Reino Unido"/>
+        <s v="Georgia"/>
+        <s v="Guernsey"/>
+        <s v="Ghana"/>
+        <s v="Gibraltar"/>
+        <s v="Guinea"/>
+        <s v="Guadalupe"/>
+        <s v="Gambia"/>
+        <s v="Guinea-Bissau"/>
+        <s v="Guinea Ecuatorial"/>
+        <s v="Grecia"/>
+        <s v="Granada"/>
+        <s v="Groenlandia"/>
+        <s v="Guatemala"/>
+        <s v="Guayana Francesa"/>
+        <s v="Guam"/>
+        <s v="Guyana"/>
+        <s v="Países de Altos Ingresos"/>
+        <s v="Hong Kong"/>
+        <s v="Islas Heard y McDonald"/>
+        <s v="Honduras"/>
+        <s v="Países Pobres Muy Endeudados (PPME)"/>
+        <s v="Croacia"/>
+        <s v="Haití"/>
+        <s v="Hungría"/>
+        <s v="Sólo BIRF"/>
+        <s v="AIF"/>
+        <s v="AIF Total"/>
+        <s v="Mezcla de AIF"/>
+        <s v="Indonesia"/>
+        <s v="Solo AIF"/>
+        <s v="Isla de Man"/>
+        <s v="India"/>
+        <s v="Territorio Británico del Océano Índico"/>
+        <s v="Irlanda"/>
+        <s v="Irán"/>
+        <s v="Iraq"/>
+        <s v="Islandia"/>
+        <s v="Israel"/>
+        <s v="Italia"/>
+        <s v="Jamaica"/>
+        <s v="Jersey"/>
+        <s v="Jordania"/>
+        <s v="Japón"/>
+        <s v="Isla Jhonston"/>
+        <s v="Kazajstán"/>
+        <s v="Kenia"/>
+        <s v="Kirguistán"/>
+        <s v="Camboya"/>
+        <s v="Kiribati"/>
+        <s v="San Cristóbal y Nieves-Anguila-Aru"/>
+        <s v="Saint Kitts y Nevis"/>
+        <s v="Corea del Sur"/>
+        <s v="Kosovo"/>
+        <s v="Kuwait"/>
+        <s v="América Latina y el Caribe (excluidos Países de Altos Ingresos)"/>
+        <s v="Lao"/>
+        <s v="Líbano"/>
+        <s v="Liberia"/>
+        <s v="Libia"/>
+        <s v="Santa Lucía"/>
+        <s v="Países Menos Desarrollados: Clasificación de la ONU"/>
+        <s v="Países de Bajos Ingresos"/>
+        <s v="Liechtenstein"/>
+        <s v="Sri Lanka"/>
+        <s v="Países de Ingreso Medio Bajo"/>
+        <s v="Países de Ingreso Bajo y Medio"/>
+        <s v="Lesotho"/>
+        <s v="Bono Demográfico Tardío"/>
+        <s v="Lituania"/>
+        <s v="Luxemburgo"/>
+        <s v="Letonia"/>
+        <s v="Macao"/>
+        <s v="San Martín (parte francesa)"/>
+        <s v="Marruecos"/>
+        <s v="Mónaco"/>
+        <s v="Moldavia"/>
+        <s v="Madagascar"/>
+        <s v="Maldivas"/>
+        <s v="Oriente Medio y África del Norte"/>
+        <s v="México"/>
+        <s v="Islas Marshall"/>
+        <s v="Ingreso Medio"/>
+        <s v="Islas Midway"/>
+        <s v="Macedonia del Norte"/>
+        <s v="Malí"/>
+        <s v="Malta"/>
+        <s v="Myanmar"/>
+        <s v="Oriente Medio y África del Norte (excluidos Países de Altos Ingresos)"/>
+        <s v="Montenegro"/>
+        <s v="Mongolia"/>
+        <s v="Islas Marianas Septentrionales"/>
+        <s v="Mozambique"/>
+        <s v="Mauritania"/>
+        <s v="Montserrat"/>
+        <s v="Martinica"/>
+        <s v="Mauricio"/>
+        <s v="Malawi"/>
+        <s v="Malasia"/>
+        <s v="Mayotte"/>
+        <s v="Namibia"/>
+        <s v="Nueva Caledonia"/>
+        <s v="Níger"/>
+        <s v="Isla Norfolk"/>
+        <s v="Nigeria"/>
+        <s v="Nicaragua"/>
+        <s v="Niue"/>
+        <s v="Países Bajos"/>
+        <s v="Noruega"/>
+        <s v="Nepal"/>
+        <s v="Nauru"/>
+        <s v="Zona Neutral"/>
+        <s v="Nueva Zelandia"/>
+        <s v="Miembros de la OCDE"/>
+        <s v="Otros Países de Altos Ingresos"/>
+        <s v="Omán"/>
+        <s v="Otros Estados Pequeños"/>
+        <s v="Pakistán"/>
+        <s v="Palestina"/>
+        <s v="Panamá"/>
+        <s v="Islas del Pacifico"/>
+        <s v="Pitcairn"/>
+        <s v="Zona del Canal de Panamá (ex)"/>
+        <s v="Perú"/>
+        <s v="Filipinas"/>
+        <s v="Palau"/>
+        <s v="Pen Malasia"/>
+        <s v="Papua Nueva Guinea"/>
+        <s v="Polonia"/>
+        <s v="Países del Bono Predemográfico"/>
+        <s v="Puerto Rico"/>
+        <s v="Corea del Norte"/>
+        <s v="Portugal"/>
+        <s v="Paraguay"/>
+        <s v="Pequeños Estados Insulares del Pacífico"/>
+        <s v="Países del Bono Posdemográfico"/>
+        <s v="Polinesia Francesa"/>
+        <s v="Qatar"/>
+        <s v="Reunión"/>
+        <s v="Rumania"/>
+        <s v="Rusia"/>
+        <s v="Ruanda"/>
+        <s v="Islas Ryūkyū"/>
+        <s v="Arabia Saudita"/>
+        <s v="Sabá"/>
+        <s v="Serbia y Montenegro"/>
+        <s v="Sudán"/>
+        <s v="Senegal"/>
+        <s v="Singapur"/>
+        <s v="Georgia del Sur y las Islas Sandwich del Sur"/>
+        <s v="Santa Elena"/>
+        <s v="Sikkim"/>
+        <s v="Islas Svalbard y Jan Mayen"/>
+        <s v="Islas Salomón"/>
+        <s v="Sierra Leona"/>
+        <s v="El Salvador"/>
+        <s v="San Marino"/>
+        <s v="Somalia"/>
+        <s v="Categorías Especiales"/>
+        <s v="San Pedro y Miquelón"/>
+        <s v="Serbia"/>
+        <s v="África Subsahariana (excluidos los Ingresos Altos)"/>
+        <s v="Sudán del Sur"/>
+        <s v="Estados Pequeños"/>
+        <s v="Santo Tomé y Príncipe"/>
+        <s v="Suriname"/>
+        <s v="Eslovaquia"/>
+        <s v="Eslovenia"/>
+        <s v="Vietnam del Sur (ex)"/>
+        <s v="Suecia"/>
+        <s v="Sarawak"/>
+        <s v="Eswatini"/>
+        <s v="San Martín (parte Holandesa)"/>
+        <s v="Seychelles"/>
+        <s v="Siria"/>
+        <s v="Tanganica (ex)"/>
+        <s v="Islas Turcas y Caicos"/>
+        <s v="Chad"/>
+        <s v="Este de Asia y Pacífico (IDA y BIRF)"/>
+        <s v="Europa y Asia Central (IDA y BIRF)"/>
+        <s v="Togo"/>
+        <s v="Tailandia"/>
+        <s v="Tayikistán"/>
+        <s v="Tokelau"/>
+        <s v="Turkmenistán"/>
+        <s v="América Latina y el Caribe (IDA y BIRF)"/>
+        <s v="Timor-Leste"/>
+        <s v="Oriente Medio y África del Norte (IDA y BIRF)"/>
+        <s v="Tonga"/>
+        <s v="Asia del Sur (IDA y BIRF)"/>
+        <s v="África Subsahariana (IDA y BIRF)"/>
+        <s v="Trinidad y Tobago"/>
+        <s v="Túnez"/>
+        <s v="Turquía"/>
+        <s v="Tuvalu"/>
+        <s v="Tanzanía"/>
+        <s v="Uganda"/>
+        <s v="Ucrania"/>
+        <s v="Ingreso Medio Alto"/>
+        <s v="Islas Menores alejadas de Estados Unidos"/>
+        <s v="No Especificado"/>
+        <s v="Uruguay"/>
+        <s v="Estados Unidos"/>
+        <s v="Us Msc.Pac.I"/>
+        <s v="Uzbekistán"/>
+        <s v="Vaticano"/>
+        <s v="San Vicente y las Granadinas"/>
+        <s v="Vietnam del Norte (ex)"/>
+        <s v="Venezuela"/>
+        <s v="Islas Vírgenes Británicas"/>
+        <s v="Islas Vírgenes de los Estados Unidos"/>
+        <s v="Vietnam"/>
+        <s v="Vanuatu"/>
+        <s v="Isla Wake"/>
+        <s v="Cisjordania y Gaza"/>
+        <s v="Mundo"/>
+        <s v="Islas Wallis y Futuna"/>
+        <s v="Samoa"/>
+        <s v="África"/>
+        <s v="Américas"/>
+        <s v="Yemen"/>
+        <s v="Sudáfrica"/>
+        <s v="Zambia"/>
+        <s v="Zanzibar"/>
+        <s v="Rhodesia y Nyasaland (ex)"/>
+        <s v="Zimbabwe"/>
+        <s v="Transporte Internacional"/>
+        <s v="Islas del Pacífico (ex)"/>
+        <s v="Países no Declarados"/>
+        <s v="Cooperación Económica Asia-Pacífico"/>
+        <s v="Asociación de Naciones del Sudeste Asiático"/>
+        <s v="Zona Euro (19 países)"/>
+        <s v="Asia del Este"/>
+        <s v="Unión Europea (28 países excluyendo EU15)"/>
+        <s v="Unión Europea (15 países)"/>
+        <s v="Unión Europea (27 países)"/>
+        <s v="Unión Europea (28 países)"/>
+        <s v="G-20"/>
+        <s v="Economías no miembros de OCDE"/>
+        <s v="Países miembros de OCDE"/>
+        <s v="Resto del Mundo"/>
+        <s v="Este y Sudeste Asiático"/>
+        <s v="Otras Regiones"/>
+        <s v="América del Sur y Central"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="fuente_desc_fundar" numFmtId="0">
+      <sharedItems>
+        <s v="unsd"/>
+        <s v="bm"/>
+        <s v="indec"/>
+        <s v="fundar"/>
+        <s v="wto"/>
+        <s v="fao"/>
+        <s v="cep"/>
+        <s v="undp"/>
+        <s v="wits"/>
+        <s v="fmi"/>
+        <s v="oecd"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="continente_fundar" numFmtId="0">
+      <sharedItems containsBlank="1">
+        <s v="América del Norte, Central y el Caribe"/>
+        <m/>
+        <s v="Asia"/>
+        <s v="África"/>
+        <s v="Europa"/>
+        <s v="América del Sur"/>
+        <s v="Oceanía"/>
+        <s v="Antártida"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="es_iso" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1">
+        <n v="1.0"/>
+        <n v="0.0"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="nivel_agregacion" numFmtId="0">
+      <sharedItems>
+        <s v="pais"/>
+        <s v="agregacion"/>
+        <s v="país"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="subregion_unsd" numFmtId="0">
+      <sharedItems containsBlank="1">
+        <s v="América Latina y el Caribe"/>
+        <m/>
+        <s v="Asia meridional"/>
+        <s v="África Subsahariana"/>
+        <s v="Europa septentrional"/>
+        <s v="Europa meridional"/>
+        <s v="Asia occidental"/>
+        <s v="Polinesia"/>
+        <s v="Australia y Nueva Zelandia"/>
+        <s v="Europa occidental"/>
+        <s v="Europa oriental"/>
+        <s v="América septentrional"/>
+        <s v="Asia sudoriental"/>
+        <s v="Asia oriental"/>
+        <s v="África septentrional"/>
+        <s v="Melanesia"/>
+        <s v="Micronesia"/>
+        <s v="Asia central"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="intermediate_region_unsd" numFmtId="0">
+      <sharedItems containsBlank="1">
+        <s v="El Caribe"/>
+        <m/>
+        <s v="África central"/>
+        <s v="América del Sur"/>
+        <s v="África oriental"/>
+        <s v="África occidental"/>
+        <s v="América central"/>
+        <s v="América del Norte"/>
+        <s v="África meridional"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="grupos_ingreso_bm_es" numFmtId="0">
+      <sharedItems containsBlank="1">
+        <s v="Ingreso Alto"/>
+        <m/>
+        <s v="Ingreso Bajo"/>
+        <s v="Ingreso Medio Bajo"/>
+        <s v="Ingreso Medio Alto"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+</pivotCacheDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3017,9 +4285,9 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.71"/>
-    <col customWidth="1" min="2" max="2" width="17.86"/>
-    <col customWidth="1" min="3" max="26" width="8.71"/>
+    <col customWidth="1" min="1" max="3" width="17.71"/>
+    <col customWidth="1" min="4" max="4" width="50.57"/>
+    <col customWidth="1" min="5" max="26" width="17.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -13667,7 +14935,7 @@
       <c r="C379" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D379" s="2" t="s">
+      <c r="D379" s="3" t="s">
         <v>788</v>
       </c>
       <c r="E379" s="2" t="s">
@@ -15427,7 +16695,26 @@
         <v>23</v>
       </c>
     </row>
-    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1">
+      <c r="A448" s="3" t="s">
+        <v>912</v>
+      </c>
+      <c r="C448" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D448" s="3" t="s">
+        <v>913</v>
+      </c>
+      <c r="E448" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G448" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H448" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
     <row r="449" ht="15.75" customHeight="1"/>
     <row r="450" ht="15.75" customHeight="1"/>
     <row r="451" ht="15.75" customHeight="1"/>
@@ -15981,10 +17268,4571 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="$A$1:$K$447"/>
+  <autoFilter ref="$A$1:$Z$448"/>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="33.0"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B2" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B3" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="B4" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B20" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="C20" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B21" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="C21" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B22" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="C22" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B23" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="C23" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B24" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="C24" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B25" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="C25" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="B33" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="B35" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C35" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="B36" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C36" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="B37" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C37" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="B38" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="B39" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C39" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="B40" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C40" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="B41" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C41" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="B42" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C42" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="B43" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C43" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="B44" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C44" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B45" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C45" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="B46" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C46" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="B47" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C47" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="B48" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C48" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="B49" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C49" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="B50" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C50" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="B51" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C51" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="B52" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C52" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="B53" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C53" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="B54" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C54" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="B55" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C55" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="B56" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C56" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="B57" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C57" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="B58" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C58" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B59" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C59" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B60" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C60" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="B61" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C61" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B62" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C62" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="B63" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C63" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="B64" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C64" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="B65" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C65" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="B66" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C66" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="B67" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C67" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B68" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C68" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="B69" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C69" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B70" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C70" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="B71" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C71" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B72" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C72" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="B73" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C73" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B74" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C74" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="B75" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C75" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="B76" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C76" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="B77" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C77" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="B78" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C78" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B79" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C79" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B80" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C80" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="B81" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C81" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="B82" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C82" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="B83" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C83" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="B84" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C84" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="B85" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C85" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="B86" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C86" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="B87" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C87" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="B88" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C88" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B89" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C89" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="B90" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C90" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="B91" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C91" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="B92" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C92" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="B93" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C93" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="B94" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C94" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="B95" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C95" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="B96" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C96" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="B97" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C97" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B98" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C98" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="B99" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C99" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B100" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C100" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B101" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C101" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="B102" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C102" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="B103" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C103" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B104" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C104" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="B105" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C105" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="B106" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C106" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="B107" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C107" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="B108" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C108" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="B109" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C109" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="B110" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C110" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B111" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C111" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B112" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C112" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B113" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C113" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B114" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C114" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B115" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C115" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B116" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C116" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B117" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C117" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="B118" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C118" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="B119" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C119" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="B120" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C120" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="B121" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C121" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B122" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C122" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B123" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C123" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="B124" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C124" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B125" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C125" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B126" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C126" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="B127" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C127" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B128" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C128" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="B129" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C129" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="B130" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C130" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="B131" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C131" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="B132" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C132" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="B133" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C133" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="B134" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C134" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B135" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C135" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B136" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C136" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="B137" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C137" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="B138" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C138" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="B139" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C139" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B140" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C140" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B141" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C141" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B142" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C142" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="B143" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C143" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="B144" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C144" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B145" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C145" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B146" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C146" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="B147" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C147" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B148" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C148" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="B149" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C149" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B150" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C150" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="B151" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C151" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="B152" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C152" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="B153" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C153" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="B154" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C154" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="B155" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C155" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="B156" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C156" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="B157" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C157" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="B158" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C158" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B159" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C159" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B160" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C160" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B161" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C161" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="B162" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C162" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="B163" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C163" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="B164" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C164" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B165" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C165" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B166" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C166" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="B167" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C167" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="B168" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C168" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="B169" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C169" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="B170" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C170" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="B171" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C171" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B172" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C172" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="B173" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C173" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="B174" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C174" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="B175" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C175" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B176" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C176" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="B177" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C177" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="B178" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C178" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="B179" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C179" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="B180" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C180" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="B181" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C181" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="B182" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C182" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="B183" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C183" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B184" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C184" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="B185" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C185" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B186" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C186" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="B187" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C187" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="B188" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C188" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="B189" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C189" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="B190" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C190" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="B191" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C191" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="B192" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C192" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="B193" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C193" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B194" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C194" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B195" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C195" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="B196" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C196" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="B197" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C197" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="B198" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C198" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="B199" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C199" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="B200" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C200" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="B201" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C201" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="B202" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C202" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="B203" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C203" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="B204" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C204" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B205" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C205" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="B206" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C206" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="B207" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C207" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="B208" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C208" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="B209" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C209" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="B210" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C210" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="B211" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C211" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="B212" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C212" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="B213" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C213" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="B214" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C214" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B215" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C215" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="B216" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C216" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="B217" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C217" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="B218" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C218" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="B219" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C219" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="B220" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C220" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="B221" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C221" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="B222" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C222" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="B223" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C223" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="B224" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C224" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="B225" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C225" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="B226" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C226" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="B227" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C227" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B228" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C228" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="B229" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C229" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="B230" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C230" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B231" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C231" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B232" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C232" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B233" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C233" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="B234" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C234" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="B235" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C235" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B236" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C236" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B237" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C237" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B238" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C238" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B239" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C239" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B240" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C240" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="B241" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C241" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="B242" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C242" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="B243" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C243" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="B244" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C244" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B245" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C245" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B246" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C246" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="B247" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C247" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B248" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C248" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B249" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C249" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B250" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C250" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="B251" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C251" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B252" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C252" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B253" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C253" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B254" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C254" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B255" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C255" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="B256" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C256" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B257" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C257" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B258" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C258" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B259" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C259" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B260" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C260" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B261" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C261" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B262" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C262" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B263" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C263" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B264" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C264" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B265" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C265" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B266" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C266" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B267" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C267" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B268" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C268" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B269" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C269" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B270" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C270" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B271" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C271" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="B272" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C272" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B273" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C273" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B274" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C274" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B275" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C275" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="B276" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C276" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B277" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C277" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B278" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C278" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B279" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C279" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="B280" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C280" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B281" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C281" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="B282" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C282" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B283" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C283" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B284" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C284" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B285" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C285" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B286" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C286" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B287" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C287" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B288" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C288" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B289" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C289" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B290" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C290" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="B291" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C291" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B292" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C292" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="B293" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C293" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="B294" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C294" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B295" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C295" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B296" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C296" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="B297" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C297" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="B298" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C298" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B299" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C299" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="B300" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C300" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="B301" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C301" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B302" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C302" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B303" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C303" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="B304" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C304" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B305" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C305" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B306" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C306" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="B307" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C307" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B308" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C308" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B309" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C309" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B310" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C310" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B311" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C311" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B312" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C312" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B313" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C313" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B314" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C314" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B315" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C315" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B316" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C316" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B317" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C317" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B318" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C318" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B319" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C319" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B320" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C320" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="B321" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C321" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="B322" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C322" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B323" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C323" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B324" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C324" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B325" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C325" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B326" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C326" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="B327" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C327" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B328" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C328" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B329" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C329" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B330" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C330" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="B331" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C331" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B332" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C332" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B333" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C333" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="B334" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C334" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B335" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C335" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B336" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C336" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B337" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C337" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="B338" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C338" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B339" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C339" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B340" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C340" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B341" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C341" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B342" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C342" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B343" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C343" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B344" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C344" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B345" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C345" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B346" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C346" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B347" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C347" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="B348" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C348" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B349" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C349" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B350" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C350" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B351" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C351" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B352" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C352" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B353" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C353" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B354" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C354" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B355" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C355" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B356" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C356" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B357" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C357" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B358" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C358" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B359" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C359" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B360" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C360" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B361" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C361" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B362" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C362" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B363" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C363" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B364" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C364" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="B365" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C365" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B366" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C366" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B367" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C367" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B368" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C368" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B369" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C369" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B370" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C370" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B371" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C371" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B372" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C372" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B373" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C373" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="B374" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C374" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="B375" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C375" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B376" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C376" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B377" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C377" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B378" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C378" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B379" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C379" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B380" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C380" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B381" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C381" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B382" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C382" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="B383" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C383" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B384" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C384" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B385" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C385" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B386" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C386" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B387" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C387" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B388" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C388" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B389" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C389" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="B390" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C390" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="B391" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C391" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="B392" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C392" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="B393" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C393" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B394" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C394" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B395" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C395" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B396" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C396" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B397" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C397" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B398" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C398" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B399" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C399" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B400" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C400" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B401" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C401" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B402" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C402" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="B403" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C403" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="B404" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C404" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B405" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C405" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B406" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C406" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B407" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C407" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B408" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C408" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B409" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C409" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B410" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C410" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B411" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C411" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B412" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C412" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B413" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C413" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>